--- a/交流管理/git账号管理/git账号.xlsx
+++ b/交流管理/git账号管理/git账号.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,43 +61,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hanjiuri0220@sina.com</t>
+  </si>
+  <si>
+    <t>韩旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李文光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛锐胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饶培育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928296326@qq.com</t>
+  </si>
+  <si>
+    <t>李会月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xjl1585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanjiuri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lihuiyue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niurs_honor@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niursgit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>18301588090@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rpy413026</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hanjiuri0220@sina.com</t>
-  </si>
-  <si>
-    <t>韩旭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李文光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛锐胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饶培育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>928296326@qq.com</t>
-  </si>
-  <si>
-    <t>李会月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xjl1585</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>897066296@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,19 +123,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hanjiuri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lihuiyue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>niurs_honor@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>niursgit</t>
+    <t xml:space="preserve">mima </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>413026yu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,10 +186,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -483,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -495,7 +505,7 @@
     <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +521,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -529,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -540,77 +553,80 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -619,9 +635,10 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/交流管理/git账号管理/git账号.xlsx
+++ b/交流管理/git账号管理/git账号.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,18 +124,14 @@
   </si>
   <si>
     <t xml:space="preserve">mima </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>413026yu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,7 +203,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -281,7 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -316,7 +311,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,20 +486,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -542,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -556,7 +550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -569,11 +563,8 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -587,7 +578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -601,7 +592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -615,7 +606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -643,12 +634,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -656,12 +647,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
